--- a/natmiOut/OldD4/LR-pairs_lrc2p/Lamc2-Itgb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Lamc2-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.249141347541881</v>
+        <v>0.483258</v>
       </c>
       <c r="H2">
-        <v>0.249141347541881</v>
+        <v>1.449774</v>
       </c>
       <c r="I2">
-        <v>0.05883911835653299</v>
+        <v>0.104155612626562</v>
       </c>
       <c r="J2">
-        <v>0.05883911835653299</v>
+        <v>0.1095883597507648</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N2">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O2">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P2">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q2">
-        <v>30.82952964394449</v>
+        <v>66.79547874001601</v>
       </c>
       <c r="R2">
-        <v>30.82952964394449</v>
+        <v>601.1593086601441</v>
       </c>
       <c r="S2">
-        <v>0.01242815533837293</v>
+        <v>0.02342692673859211</v>
       </c>
       <c r="T2">
-        <v>0.01242815533837293</v>
+        <v>0.02714064225769239</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.249141347541881</v>
+        <v>0.483258</v>
       </c>
       <c r="H3">
-        <v>0.249141347541881</v>
+        <v>1.449774</v>
       </c>
       <c r="I3">
-        <v>0.05883911835653299</v>
+        <v>0.104155612626562</v>
       </c>
       <c r="J3">
-        <v>0.05883911835653299</v>
+        <v>0.1095883597507648</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N3">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P3">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q3">
-        <v>34.52805589377078</v>
+        <v>71.48078328714</v>
       </c>
       <c r="R3">
-        <v>34.52805589377078</v>
+        <v>643.32704958426</v>
       </c>
       <c r="S3">
-        <v>0.01391912387687347</v>
+        <v>0.02507018595978412</v>
       </c>
       <c r="T3">
-        <v>0.01391912387687347</v>
+        <v>0.02904439647849493</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.249141347541881</v>
+        <v>0.483258</v>
       </c>
       <c r="H4">
-        <v>0.249141347541881</v>
+        <v>1.449774</v>
       </c>
       <c r="I4">
-        <v>0.05883911835653299</v>
+        <v>0.104155612626562</v>
       </c>
       <c r="J4">
-        <v>0.05883911835653299</v>
+        <v>0.1095883597507648</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N4">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O4">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P4">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q4">
-        <v>17.76375111820887</v>
+        <v>35.892836507272</v>
       </c>
       <c r="R4">
-        <v>17.76375111820887</v>
+        <v>323.035528565448</v>
       </c>
       <c r="S4">
-        <v>0.007161012861338256</v>
+        <v>0.01258855939290367</v>
       </c>
       <c r="T4">
-        <v>0.007161012861338256</v>
+        <v>0.01458414032855957</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.249141347541881</v>
+        <v>0.483258</v>
       </c>
       <c r="H5">
-        <v>0.249141347541881</v>
+        <v>1.449774</v>
       </c>
       <c r="I5">
-        <v>0.05883911835653299</v>
+        <v>0.104155612626562</v>
       </c>
       <c r="J5">
-        <v>0.05883911835653299</v>
+        <v>0.1095883597507648</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N5">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O5">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P5">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q5">
-        <v>21.1338686291766</v>
+        <v>41.00780171504601</v>
       </c>
       <c r="R5">
-        <v>21.1338686291766</v>
+        <v>369.0702154354141</v>
       </c>
       <c r="S5">
-        <v>0.008519591614196544</v>
+        <v>0.01438251187970847</v>
       </c>
       <c r="T5">
-        <v>0.008519591614196544</v>
+        <v>0.01666247622020085</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.249141347541881</v>
+        <v>0.483258</v>
       </c>
       <c r="H6">
-        <v>0.249141347541881</v>
+        <v>1.449774</v>
       </c>
       <c r="I6">
-        <v>0.05883911835653299</v>
+        <v>0.104155612626562</v>
       </c>
       <c r="J6">
-        <v>0.05883911835653299</v>
+        <v>0.1095883597507648</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N6">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O6">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P6">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q6">
-        <v>41.70228351418039</v>
+        <v>81.79436219913902</v>
       </c>
       <c r="R6">
-        <v>41.70228351418039</v>
+        <v>490.7661731948341</v>
       </c>
       <c r="S6">
-        <v>0.0168112346657518</v>
+        <v>0.02868742865557368</v>
       </c>
       <c r="T6">
-        <v>0.0168112346657518</v>
+        <v>0.02215670446581704</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.34010785162245</v>
+        <v>3.466092333333334</v>
       </c>
       <c r="H7">
-        <v>3.34010785162245</v>
+        <v>10.398277</v>
       </c>
       <c r="I7">
-        <v>0.7888253119934725</v>
+        <v>0.7470398222037985</v>
       </c>
       <c r="J7">
-        <v>0.7888253119934725</v>
+        <v>0.7860053502574217</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N7">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O7">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P7">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q7">
-        <v>413.3153932157167</v>
+        <v>479.0801119942125</v>
       </c>
       <c r="R7">
-        <v>413.3153932157167</v>
+        <v>4311.721007947912</v>
       </c>
       <c r="S7">
-        <v>0.1666177839866775</v>
+        <v>0.1680259636926772</v>
       </c>
       <c r="T7">
-        <v>0.1666177839866775</v>
+        <v>0.1946620067358022</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.34010785162245</v>
+        <v>3.466092333333334</v>
       </c>
       <c r="H8">
-        <v>3.34010785162245</v>
+        <v>10.398277</v>
       </c>
       <c r="I8">
-        <v>0.7888253119934725</v>
+        <v>0.7470398222037985</v>
       </c>
       <c r="J8">
-        <v>0.7888253119934725</v>
+        <v>0.7860053502574217</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N8">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P8">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q8">
-        <v>462.8996018922789</v>
+        <v>512.6847252031366</v>
       </c>
       <c r="R8">
-        <v>462.8996018922789</v>
+        <v>4614.16252682823</v>
       </c>
       <c r="S8">
-        <v>0.1866064200404765</v>
+        <v>0.1798119831445082</v>
       </c>
       <c r="T8">
-        <v>0.1866064200404765</v>
+        <v>0.208316385782346</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.34010785162245</v>
+        <v>3.466092333333334</v>
       </c>
       <c r="H9">
-        <v>3.34010785162245</v>
+        <v>10.398277</v>
       </c>
       <c r="I9">
-        <v>0.7888253119934725</v>
+        <v>0.7470398222037985</v>
       </c>
       <c r="J9">
-        <v>0.7888253119934725</v>
+        <v>0.7860053502574217</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N9">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O9">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P9">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q9">
-        <v>238.1493283615742</v>
+        <v>257.4357495156671</v>
       </c>
       <c r="R9">
-        <v>238.1493283615742</v>
+        <v>2316.921745641004</v>
       </c>
       <c r="S9">
-        <v>0.09600395727049889</v>
+        <v>0.09028947104746267</v>
       </c>
       <c r="T9">
-        <v>0.09600395727049889</v>
+        <v>0.1046024628274706</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.34010785162245</v>
+        <v>3.466092333333334</v>
       </c>
       <c r="H10">
-        <v>3.34010785162245</v>
+        <v>10.398277</v>
       </c>
       <c r="I10">
-        <v>0.7888253119934725</v>
+        <v>0.7470398222037985</v>
       </c>
       <c r="J10">
-        <v>0.7888253119934725</v>
+        <v>0.7860053502574217</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N10">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O10">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P10">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q10">
-        <v>283.3307326942348</v>
+        <v>294.1220365340553</v>
       </c>
       <c r="R10">
-        <v>283.3307326942348</v>
+        <v>2647.098328806498</v>
       </c>
       <c r="S10">
-        <v>0.1142177126516951</v>
+        <v>0.1031563143503742</v>
       </c>
       <c r="T10">
-        <v>0.1142177126516951</v>
+        <v>0.1195090015709769</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.34010785162245</v>
+        <v>3.466092333333334</v>
       </c>
       <c r="H11">
-        <v>3.34010785162245</v>
+        <v>10.398277</v>
       </c>
       <c r="I11">
-        <v>0.7888253119934725</v>
+        <v>0.7470398222037985</v>
       </c>
       <c r="J11">
-        <v>0.7888253119934725</v>
+        <v>0.7860053502574217</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N11">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O11">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P11">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q11">
-        <v>559.0807225319535</v>
+        <v>586.6572549824846</v>
       </c>
       <c r="R11">
-        <v>559.0807225319535</v>
+        <v>3519.943529894907</v>
       </c>
       <c r="S11">
-        <v>0.2253794380441246</v>
+        <v>0.2057560899687763</v>
       </c>
       <c r="T11">
-        <v>0.2253794380441246</v>
+        <v>0.158915493340826</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.645031573572953</v>
+        <v>0.0003813333333333334</v>
       </c>
       <c r="H12">
-        <v>0.645031573572953</v>
+        <v>0.001144</v>
       </c>
       <c r="I12">
-        <v>0.1523355696499945</v>
+        <v>8.218799678073065E-05</v>
       </c>
       <c r="J12">
-        <v>0.1523355696499945</v>
+        <v>8.64749150935766E-05</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N12">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O12">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P12">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q12">
-        <v>79.81822453378459</v>
+        <v>0.05270754454044445</v>
       </c>
       <c r="R12">
-        <v>79.81822453378459</v>
+        <v>0.474367900864</v>
       </c>
       <c r="S12">
-        <v>0.03217672487370725</v>
+        <v>1.848591862521288E-05</v>
       </c>
       <c r="T12">
-        <v>0.03217672487370725</v>
+        <v>2.141636885666324E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.645031573572953</v>
+        <v>0.0003813333333333334</v>
       </c>
       <c r="H13">
-        <v>0.645031573572953</v>
+        <v>0.001144</v>
       </c>
       <c r="I13">
-        <v>0.1523355696499945</v>
+        <v>8.218799678073065E-05</v>
       </c>
       <c r="J13">
-        <v>0.1523355696499945</v>
+        <v>8.64749150935766E-05</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N13">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P13">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q13">
-        <v>89.39377764997415</v>
+        <v>0.05640466450666666</v>
       </c>
       <c r="R13">
-        <v>89.39377764997415</v>
+        <v>0.50764198056</v>
       </c>
       <c r="S13">
-        <v>0.03603687009659164</v>
+        <v>1.978259558937672E-05</v>
       </c>
       <c r="T13">
-        <v>0.03603687009659164</v>
+        <v>2.291859943094455E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.645031573572953</v>
+        <v>0.0003813333333333334</v>
       </c>
       <c r="H14">
-        <v>0.645031573572953</v>
+        <v>0.001144</v>
       </c>
       <c r="I14">
-        <v>0.1523355696499945</v>
+        <v>8.218799678073065E-05</v>
       </c>
       <c r="J14">
-        <v>0.1523355696499945</v>
+        <v>8.64749150935766E-05</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N14">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O14">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P14">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q14">
-        <v>45.99068139185702</v>
+        <v>0.02832262474311111</v>
       </c>
       <c r="R14">
-        <v>45.99068139185702</v>
+        <v>0.254903622688</v>
       </c>
       <c r="S14">
-        <v>0.01853999522720209</v>
+        <v>9.933487526664014E-06</v>
       </c>
       <c r="T14">
-        <v>0.01853999522720209</v>
+        <v>1.1508177506199E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.645031573572953</v>
+        <v>0.0003813333333333334</v>
       </c>
       <c r="H15">
-        <v>0.645031573572953</v>
+        <v>0.001144</v>
       </c>
       <c r="I15">
-        <v>0.1523355696499945</v>
+        <v>8.218799678073065E-05</v>
       </c>
       <c r="J15">
-        <v>0.1523355696499945</v>
+        <v>8.64749150935766E-05</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N15">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O15">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P15">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q15">
-        <v>54.71597818692174</v>
+        <v>0.03235878499822223</v>
       </c>
       <c r="R15">
-        <v>54.71597818692174</v>
+        <v>0.291229064984</v>
       </c>
       <c r="S15">
-        <v>0.02205738083751974</v>
+        <v>1.134907481468594E-05</v>
       </c>
       <c r="T15">
-        <v>0.02205738083751974</v>
+        <v>1.314816847033384E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.0003813333333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.001144</v>
+      </c>
+      <c r="I16">
+        <v>8.218799678073065E-05</v>
+      </c>
+      <c r="J16">
+        <v>8.64749150935766E-05</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>169.2560955</v>
+      </c>
+      <c r="N16">
+        <v>338.512191</v>
+      </c>
+      <c r="O16">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P16">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q16">
+        <v>0.06454299108400001</v>
+      </c>
+      <c r="R16">
+        <v>0.387257946504</v>
+      </c>
+      <c r="S16">
+        <v>2.26369202247911E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.748360082943596E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.6900375000000001</v>
+      </c>
+      <c r="H17">
+        <v>1.380075</v>
+      </c>
+      <c r="I17">
+        <v>0.1487223771728586</v>
+      </c>
+      <c r="J17">
+        <v>0.10431981507672</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>138.2190853333333</v>
+      </c>
+      <c r="N17">
+        <v>414.657256</v>
+      </c>
+      <c r="O17">
+        <v>0.2249223651785973</v>
+      </c>
+      <c r="P17">
+        <v>0.2476599003709697</v>
+      </c>
+      <c r="Q17">
+        <v>95.37635209570001</v>
+      </c>
+      <c r="R17">
+        <v>572.2581125742001</v>
+      </c>
+      <c r="S17">
+        <v>0.0334509888287028</v>
+      </c>
+      <c r="T17">
+        <v>0.02583583500861847</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.6900375000000001</v>
+      </c>
+      <c r="H18">
+        <v>1.380075</v>
+      </c>
+      <c r="I18">
+        <v>0.1487223771728586</v>
+      </c>
+      <c r="J18">
+        <v>0.10431981507672</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>147.91433</v>
+      </c>
+      <c r="N18">
+        <v>443.74299</v>
+      </c>
+      <c r="O18">
+        <v>0.2406993279341593</v>
+      </c>
+      <c r="P18">
+        <v>0.2650317656414439</v>
+      </c>
+      <c r="Q18">
+        <v>102.066434487375</v>
+      </c>
+      <c r="R18">
+        <v>612.39860692425</v>
+      </c>
+      <c r="S18">
+        <v>0.03579737623427763</v>
+      </c>
+      <c r="T18">
+        <v>0.02764806478117203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.6900375000000001</v>
+      </c>
+      <c r="H19">
+        <v>1.380075</v>
+      </c>
+      <c r="I19">
+        <v>0.1487223771728586</v>
+      </c>
+      <c r="J19">
+        <v>0.10431981507672</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>74.27261733333333</v>
+      </c>
+      <c r="N19">
+        <v>222.817852</v>
+      </c>
+      <c r="O19">
+        <v>0.1208629960061633</v>
+      </c>
+      <c r="P19">
+        <v>0.1330811078998542</v>
+      </c>
+      <c r="Q19">
+        <v>51.25089118315</v>
+      </c>
+      <c r="R19">
+        <v>307.5053470989</v>
+      </c>
+      <c r="S19">
+        <v>0.01797503207827033</v>
+      </c>
+      <c r="T19">
+        <v>0.01388299656631782</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.645031573572953</v>
-      </c>
-      <c r="H16">
-        <v>0.645031573572953</v>
-      </c>
-      <c r="I16">
-        <v>0.1523355696499945</v>
-      </c>
-      <c r="J16">
-        <v>0.1523355696499945</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>167.384032901926</v>
-      </c>
-      <c r="N16">
-        <v>167.384032901926</v>
-      </c>
-      <c r="O16">
-        <v>0.2857152713248502</v>
-      </c>
-      <c r="P16">
-        <v>0.2857152713248502</v>
-      </c>
-      <c r="Q16">
-        <v>107.9679861337163</v>
-      </c>
-      <c r="R16">
-        <v>107.9679861337163</v>
-      </c>
-      <c r="S16">
-        <v>0.04352459861497379</v>
-      </c>
-      <c r="T16">
-        <v>0.04352459861497379</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.6900375000000001</v>
+      </c>
+      <c r="H20">
+        <v>1.380075</v>
+      </c>
+      <c r="I20">
+        <v>0.1487223771728586</v>
+      </c>
+      <c r="J20">
+        <v>0.10431981507672</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>84.85695366666668</v>
+      </c>
+      <c r="N20">
+        <v>254.570861</v>
+      </c>
+      <c r="O20">
+        <v>0.138086767645209</v>
+      </c>
+      <c r="P20">
+        <v>0.1520460408212704</v>
+      </c>
+      <c r="Q20">
+        <v>58.55448016576252</v>
+      </c>
+      <c r="R20">
+        <v>351.3268809945751</v>
+      </c>
+      <c r="S20">
+        <v>0.02053659234031167</v>
+      </c>
+      <c r="T20">
+        <v>0.01586141486162236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.6900375000000001</v>
+      </c>
+      <c r="H21">
+        <v>1.380075</v>
+      </c>
+      <c r="I21">
+        <v>0.1487223771728586</v>
+      </c>
+      <c r="J21">
+        <v>0.10431981507672</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>169.2560955</v>
+      </c>
+      <c r="N21">
+        <v>338.512191</v>
+      </c>
+      <c r="O21">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P21">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q21">
+        <v>116.7930529985813</v>
+      </c>
+      <c r="R21">
+        <v>467.1722119943251</v>
+      </c>
+      <c r="S21">
+        <v>0.04096238769129621</v>
+      </c>
+      <c r="T21">
+        <v>0.02109150385898937</v>
       </c>
     </row>
   </sheetData>
